--- a/chiffre affaires.xlsx
+++ b/chiffre affaires.xlsx
@@ -14,7 +14,7 @@
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
@@ -101,7 +101,7 @@
     <t xml:space="preserve">Blue Buffalo</t>
   </si>
   <si>
-    <t xml:space="preserve">USA  </t>
+    <t xml:space="preserve">Chine</t>
   </si>
   <si>
     <t xml:space="preserve">Diamond Pet food</t>
@@ -259,7 +259,7 @@
   <dimension ref="1:65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.8"/>
@@ -272,7 +272,7 @@
     <col collapsed="false" hidden="false" max="8" min="7" style="2" width="11.5546558704453"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -305,7 +305,7 @@
       <c r="H3" s="6"/>
       <c r="AMJ3" s="0"/>
     </row>
-    <row r="4" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>7</v>
       </c>
@@ -326,7 +326,7 @@
       </c>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>9</v>
       </c>
@@ -347,7 +347,7 @@
       </c>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>11</v>
       </c>
@@ -367,7 +367,7 @@
         <v>9190630.77289839</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>13</v>
       </c>
@@ -387,7 +387,7 @@
         <v>14157662.1895968</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>14</v>
       </c>
@@ -407,7 +407,7 @@
         <v>164385.703757608</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>16</v>
       </c>
@@ -427,7 +427,7 @@
         <v>5768034.74012411</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>18</v>
       </c>
@@ -447,7 +447,7 @@
         <v>8957076.6789776</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>20</v>
       </c>
@@ -467,7 +467,7 @@
         <v>13619962.6087798</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>22</v>
       </c>
@@ -487,7 +487,7 @@
         <v>14159438.2972218</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>23</v>
       </c>
@@ -507,7 +507,7 @@
         <v>6091133.61598867</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>25</v>
       </c>
@@ -527,7 +527,7 @@
         <v>9226458.49386021</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>27</v>
       </c>
@@ -547,7 +547,7 @@
         <v>12518446.8956049</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>28</v>
       </c>
@@ -567,7 +567,7 @@
         <v>12386574.5831813</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>30</v>
       </c>
@@ -587,7 +587,7 @@
         <v>45514068.7406715</v>
       </c>
     </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
@@ -610,7 +610,7 @@
   <dimension ref="A1:B65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -618,7 +618,7 @@
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.5668016194332"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>2</v>
       </c>
@@ -626,7 +626,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>8</v>
       </c>
@@ -634,7 +634,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>10</v>
       </c>
@@ -642,7 +642,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>12</v>
       </c>
@@ -650,7 +650,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>15</v>
       </c>
@@ -658,7 +658,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>17</v>
       </c>
@@ -666,7 +666,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>21</v>
       </c>
@@ -674,7 +674,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>24</v>
       </c>
@@ -682,7 +682,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>33</v>
       </c>
@@ -690,7 +690,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>31</v>
       </c>

--- a/chiffre affaires.xlsx
+++ b/chiffre affaires.xlsx
@@ -21,9 +21,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
-  <si>
-    <t xml:space="preserve">Calcul du chiffre d'affaires des départements de l’entreprise</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
+  <si>
+    <t xml:space="preserve">Calcul du chiffre d'affaires des filiales de l’entreprise</t>
   </si>
   <si>
     <t xml:space="preserve">Nom de la filiale</t>
@@ -62,7 +62,31 @@
     <t xml:space="preserve">USA</t>
   </si>
   <si>
+    <t xml:space="preserve">11,100,303.68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9,214,563.65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9,484,362.57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9,190,630.77</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dog Technology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13,147,172.77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12,528,157.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13,176,758.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14,157,662.19</t>
   </si>
   <si>
     <t xml:space="preserve">International Pet Buyer</t>
@@ -259,16 +283,14 @@
   <dimension ref="1:65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.995951417004"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.3238866396761"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="12.3238866396761"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.8825910931174"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="12.7773279352227"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.1943319838057"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.89878542510122"/>
+    <col collapsed="false" hidden="false" max="6" min="3" style="1" width="13.3036437246964"/>
     <col collapsed="false" hidden="false" max="8" min="7" style="2" width="11.5546558704453"/>
   </cols>
   <sheetData>
@@ -313,16 +335,16 @@
         <v>8</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>96704111.7658971</v>
+        <v>96704111.77</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>74880277.669485</v>
+        <v>74880277.67</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>67125748.4058608</v>
+        <v>67125748.41</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>68799820.9333278</v>
+        <v>68799820.93</v>
       </c>
       <c r="I4" s="2"/>
     </row>
@@ -334,16 +356,16 @@
         <v>10</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>11816372.1326566</v>
+        <v>11816372.13</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>13015728.2629849</v>
+        <v>13015728.26</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>13621924.828111</v>
+        <v>13621924.83</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>13000551.2498663</v>
+        <v>13000551.25</v>
       </c>
       <c r="I5" s="2"/>
     </row>
@@ -354,237 +376,237 @@
       <c r="B6" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="1" t="n">
-        <v>11100303.676159</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>9214563.65472744</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>9484362.57020457</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>9190630.77289839</v>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="1" t="n">
-        <v>13147172.7709721</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>12528157.1652922</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>13176758.0585889</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>14157662.1895968</v>
+      <c r="C7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>166229.344298985</v>
+        <v>166229.34</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>164312.152974279</v>
+        <v>164312.15</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>159928.936755761</v>
+        <v>159928.94</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>164385.703757608</v>
+        <v>164385.7</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>6257128.5411325</v>
+        <v>6257128.54</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>6623168.95145436</v>
+        <v>6623168.95</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>6598682.19092704</v>
+        <v>6598682.19</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>5768034.74012411</v>
+        <v>5768034.74</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>8098127.98854063</v>
+        <v>8098127.99</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>7368629.35865739</v>
+        <v>7368629.36</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>8040557.72070294</v>
+        <v>8040557.72</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>8957076.6789776</v>
+        <v>8957076.68</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>17904706.5019039</v>
+        <v>17904706.5</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>16512489.439605</v>
+        <v>16512489.44</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>15751383.4380548</v>
+        <v>15751383.44</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>13619962.6087798</v>
+        <v>13619962.61</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>16847792.8617975</v>
+        <v>16847792.86</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>16319207.133659</v>
+        <v>16319207.13</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>15119700.5644007</v>
+        <v>15119700.56</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>14159438.2972218</v>
+        <v>14159438.3</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>5701509.60325206</v>
+        <v>5701509.6</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>5913334.43675415</v>
+        <v>5913334.44</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>6044427.76838474</v>
+        <v>6044427.77</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>6091133.61598867</v>
+        <v>6091133.62</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>10780839.3103161</v>
+        <v>10780839.31</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>10094177.4579744</v>
+        <v>10094177.46</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>9892265.53071211</v>
+        <v>9892265.53</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>9226458.49386021</v>
+        <v>9226458.49</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>13876682.947818</v>
+        <v>13876682.95</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>14132729.9564061</v>
+        <v>14132729.96</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>12906682.8177563</v>
+        <v>12906682.82</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>12518446.8956049</v>
+        <v>12518446.9</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>13144786.5995004</v>
+        <v>13144786.6</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>10570030.9674184</v>
+        <v>10570030.97</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>10704144.3748557</v>
+        <v>10704144.37</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>12386574.5831813</v>
+        <v>12386574.58</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46729687.9200709</v>
+        <v>46729687.92</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>46573795.2340269</v>
+        <v>46573795.23</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>48144135.1717813</v>
+        <v>48144135.17</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>45514068.7406715</v>
+        <v>45514068.74</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -610,7 +632,7 @@
   <dimension ref="A1:B65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -623,7 +645,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -652,7 +674,7 @@
     </row>
     <row r="5" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B5" s="7" t="n">
         <v>0.2</v>
@@ -660,7 +682,7 @@
     </row>
     <row r="6" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B6" s="7" t="n">
         <v>0.15</v>
@@ -668,7 +690,7 @@
     </row>
     <row r="7" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B7" s="7" t="n">
         <v>0.25</v>
@@ -676,7 +698,7 @@
     </row>
     <row r="8" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B8" s="7" t="n">
         <v>0.18</v>
@@ -684,7 +706,7 @@
     </row>
     <row r="9" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B9" s="7" t="n">
         <v>0.5</v>
@@ -692,7 +714,7 @@
     </row>
     <row r="10" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B10" s="7" t="n">
         <v>0.45</v>
